--- a/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-19T09:42:46+00:00</t>
+    <t>2021-12-19T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-19T22:00:49+00:00</t>
+    <t>2021-12-22T12:57:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T12:57:41+00:00</t>
+    <t>2022-01-07T08:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:15:51+00:00</t>
+    <t>2022-01-11T21:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-days-of-week-dk-supplement.xlsx
+++ b/CodeSystem-days-of-week-dk-supplement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T21:23:13+00:00</t>
+    <t>2022-01-18T20:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
